--- a/biology/Botanique/Cymbopogon_nardus/Cymbopogon_nardus.xlsx
+++ b/biology/Botanique/Cymbopogon_nardus/Cymbopogon_nardus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cymbopogon nardus (citronnelle ou citronnelle de Ceylan) est une espèce de plantes monocotylédones de la famille des Poaceae.
-C'est l'une des espèces dont on tire l'huile de citronnelle utilisée en parfumerie et pour repousser les insectes[2].
+C'est l'une des espèces dont on tire l'huile de citronnelle utilisée en parfumerie et pour repousser les insectes.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cymbopogon nardus est une plante herbacée vivace toujours verte, formant des touffes cespiteuses denses de 1 à 1,8 m de haut. Les feuilles, longues et étroites, au limbe en forme de ruban, à l'extrémité effilée, de couleur vert glauque, mesurent environ 1 m de long sur 0,5 à 1,6 cm de large. Les feuilles sont émises par des rhizomes rampants formant à la base de celles-ci de fausses tiges roussâtres de 1 à 2 cm de diamètre[3]. 
-Les inflorescences sont des panicules étroits, de 15 à 30 cm de long, regroupant des épillets sessiles, souvent villeux, de 8-10 mm de long, dont la première glume est concave et souvent aristée[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cymbopogon nardus est une plante herbacée vivace toujours verte, formant des touffes cespiteuses denses de 1 à 1,8 m de haut. Les feuilles, longues et étroites, au limbe en forme de ruban, à l'extrémité effilée, de couleur vert glauque, mesurent environ 1 m de long sur 0,5 à 1,6 cm de large. Les feuilles sont émises par des rhizomes rampants formant à la base de celles-ci de fausses tiges roussâtres de 1 à 2 cm de diamètre. 
+Les inflorescences sont des panicules étroits, de 15 à 30 cm de long, regroupant des épillets sessiles, souvent villeux, de 8-10 mm de long, dont la première glume est concave et souvent aristée.
 Le fruit est un caryopse caractéristique de la famille des Poaceae.
 </t>
         </is>
@@ -545,11 +559,13 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cymbopogon nardus est originaire des régions tropicales d'Afrique orientale et australe (Soudan, République Démocratique du Congo, Kenya, Burundi, Rwanda, Ouganda, Botswana, Mozambique, Swaziland, Lesotho, Afrique du Sud, Madagascar), du sous-continent indien (Inde, Bhoutan, Bangladesh, Sri Lanka, Seychelles) et d'Asie du Sud-Est (Birmanie, Laos, Vietnam)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cymbopogon nardus est originaire des régions tropicales d'Afrique orientale et australe (Soudan, République Démocratique du Congo, Kenya, Burundi, Rwanda, Ouganda, Botswana, Mozambique, Swaziland, Lesotho, Afrique du Sud, Madagascar), du sous-continent indien (Inde, Bhoutan, Bangladesh, Sri Lanka, Seychelles) et d'Asie du Sud-Est (Birmanie, Laos, Vietnam).
 C'est une espèce qui pousse dans les bois décidus, les prairies, mais aussi dans les friches et au bord des routes, même sur sols pauvres. 
-Elle est considérée comme une mauvaise herbe nuisible et envahissante dans certaines régions, notamment en Ouganda[4].
+Elle est considérée comme une mauvaise herbe nuisible et envahissante dans certaines régions, notamment en Ouganda.
 </t>
         </is>
       </c>
@@ -580,8 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (5 décembre 2014)[5] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (5 décembre 2014) :
 Andropogon citrosus Steud., pro syn. ;
 Andropogon confertiflorus Steud. ;
 Andropogon grandis Nees ex Steud. ;
@@ -609,10 +630,45 @@
 Cymbopogon virgatus Stapf ex Bor ;
 Lagurus paniculatus Burm.f. ;
 Sorghum nardus (L.) Kuntze.
-Liste des sous-espèces et variétés
-Selon NCBI  (5 décembre 2014)[6] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cymbopogon_nardus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cymbopogon_nardus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (5 décembre 2014) :
 variété Cymbopogon nardus var. confertiflorus
-Selon Tropicos                                           (5 décembre 2014)[7] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (5 décembre 2014) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Cymbopogon nardus subsp. hamatulus (Hook. &amp; Arn.) Rendle
 variété Cymbopogon nardus var. bobycinus (R. Br.) Roberty
 variété Cymbopogon nardus var. flexuosus (Nees ex Steud.) Haines
